--- a/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
@@ -1031,7 +1031,7 @@
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>79</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="101">
   <si>
     <t>Sezione</t>
   </si>
@@ -251,7 +251,7 @@
     <t>Data formazione documento</t>
   </si>
   <si>
-    <t>evento.trascrizioneCittadinanza.autoritaMittente</t>
+    <t>evento.trascrizioneCittadinanza.atto.enteEstero</t>
   </si>
   <si>
     <t>dataTrascrizione</t>
@@ -269,6 +269,18 @@
     <t>nomeEnte</t>
   </si>
   <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -291,6 +303,18 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
 </sst>
 </file>
@@ -349,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -358,8 +382,8 @@
     <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1111,7 +1135,7 @@
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>79</v>
@@ -1131,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>79</v>
@@ -1160,6 +1184,86 @@
         <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="103">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -373,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -385,6 +391,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -406,45 +413,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -466,805 +482,928 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -50,7 +50,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.6</t>
+    <t>193.22</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -391,7 +391,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="104">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Esito accertamento perdita di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.22</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Esito accertamento perdita di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.22</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -483,927 +486,927 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="106">
   <si>
     <t>Sezione</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -382,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -888,7 +894,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
@@ -980,7 +986,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1095,7 +1101,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>34</v>
@@ -1158,19 +1164,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1181,16 +1187,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>85</v>
@@ -1204,7 +1210,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>86</v>
@@ -1213,7 +1219,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>87</v>
@@ -1227,7 +1233,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>88</v>
@@ -1236,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>89</v>
@@ -1250,7 +1256,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>90</v>
@@ -1259,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1273,16 +1279,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1296,7 +1302,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
@@ -1305,7 +1311,7 @@
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1319,7 +1325,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1328,7 +1334,7 @@
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1342,7 +1348,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1351,7 +1357,7 @@
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1365,7 +1371,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1374,7 +1380,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1388,7 +1394,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1397,7 +1403,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1406,6 +1412,29 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="114">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -388,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1124,7 +1148,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>34</v>
@@ -1147,7 +1171,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>34</v>
@@ -1170,7 +1194,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>34</v>
@@ -1187,19 +1211,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1210,19 +1234,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1233,19 +1257,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1256,19 +1280,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1279,16 +1303,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1302,16 +1326,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1325,16 +1349,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1348,16 +1372,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1371,16 +1395,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1394,7 +1418,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1403,7 +1427,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1417,7 +1441,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1426,7 +1450,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1435,6 +1459,98 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="116">
   <si>
     <t>Sezione</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
   </si>
   <si>
     <t>Sesso</t>
@@ -412,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -734,7 +740,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -826,7 +832,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
@@ -941,7 +947,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
@@ -1033,7 +1039,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1240,7 +1246,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>34</v>
@@ -1303,19 +1309,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1326,16 +1332,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1349,7 +1355,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1358,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1372,7 +1378,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1381,7 +1387,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1395,7 +1401,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1404,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1418,16 +1424,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1441,7 +1447,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1450,7 +1456,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1464,7 +1470,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1473,7 +1479,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1487,7 +1493,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1496,7 +1502,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1510,7 +1516,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1519,7 +1525,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1533,7 +1539,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1542,7 +1548,7 @@
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1551,6 +1557,29 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -418,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1016,7 +1022,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1039,7 +1045,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1269,7 +1275,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>34</v>
@@ -1332,19 +1338,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1355,16 +1361,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1378,7 +1384,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1387,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1401,7 +1407,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1410,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1424,7 +1430,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1433,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1447,16 +1453,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1470,7 +1476,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1479,7 +1485,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1493,7 +1499,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1502,7 +1508,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1516,7 +1522,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1525,7 +1531,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1539,7 +1545,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1548,7 +1554,7 @@
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
@@ -1571,7 +1577,7 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>115</v>
@@ -1580,6 +1586,29 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -294,6 +294,81 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -424,17 +499,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1367,7 +1442,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>96</v>
@@ -1379,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
@@ -1387,22 +1462,22 @@
         <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
@@ -1410,22 +1485,22 @@
         <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44">
@@ -1433,22 +1508,22 @@
         <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45">
@@ -1456,22 +1531,22 @@
         <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
@@ -1479,7 +1554,7 @@
         <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
@@ -1488,13 +1563,13 @@
         <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47">
@@ -1517,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48">
@@ -1534,13 +1609,13 @@
         <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49">
@@ -1548,7 +1623,7 @@
         <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
@@ -1557,13 +1632,13 @@
         <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50">
@@ -1571,7 +1646,7 @@
         <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
@@ -1580,13 +1655,13 @@
         <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51">
@@ -1594,7 +1669,7 @@
         <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
@@ -1603,12 +1678,288 @@
         <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -499,14 +505,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1373,7 +1379,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>34</v>
@@ -1436,53 +1442,53 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>101</v>
@@ -1491,7 +1497,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>102</v>
@@ -1500,12 +1506,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>103</v>
@@ -1514,7 +1520,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>104</v>
@@ -1523,12 +1529,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>105</v>
@@ -1537,7 +1543,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>106</v>
@@ -1546,12 +1552,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>107</v>
@@ -1560,44 +1566,44 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1606,44 +1612,44 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1652,7 +1658,7 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1661,12 +1667,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1675,7 +1681,7 @@
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1684,12 +1690,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1698,7 +1704,7 @@
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -1707,44 +1713,44 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>124</v>
@@ -1758,7 +1764,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
@@ -1767,7 +1773,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>126</v>
@@ -1781,7 +1787,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>127</v>
@@ -1790,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -1804,7 +1810,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>129</v>
@@ -1813,7 +1819,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>130</v>
@@ -1827,16 +1833,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>132</v>
@@ -1850,7 +1856,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>133</v>
@@ -1859,7 +1865,7 @@
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>134</v>
@@ -1873,7 +1879,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>135</v>
@@ -1882,7 +1888,7 @@
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>136</v>
@@ -1896,7 +1902,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>137</v>
@@ -1905,7 +1911,7 @@
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>138</v>
@@ -1919,7 +1925,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>139</v>
@@ -1928,7 +1934,7 @@
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>140</v>
@@ -1942,7 +1948,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>141</v>
@@ -1951,7 +1957,7 @@
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>142</v>
@@ -1960,6 +1966,29 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,12 +276,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -505,14 +499,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1379,7 +1373,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>34</v>
@@ -1442,53 +1436,53 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>101</v>
@@ -1497,7 +1491,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>102</v>
@@ -1506,12 +1500,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>103</v>
@@ -1520,7 +1514,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>104</v>
@@ -1529,12 +1523,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>105</v>
@@ -1543,7 +1537,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>106</v>
@@ -1552,12 +1546,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>107</v>
@@ -1566,44 +1560,44 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1612,44 +1606,44 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1658,7 +1652,7 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1667,12 +1661,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1681,7 +1675,7 @@
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1690,12 +1684,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1704,7 +1698,7 @@
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -1713,44 +1707,44 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>124</v>
@@ -1764,7 +1758,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
@@ -1773,7 +1767,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>126</v>
@@ -1787,7 +1781,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>127</v>
@@ -1796,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -1810,7 +1804,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>129</v>
@@ -1819,7 +1813,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>130</v>
@@ -1833,16 +1827,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>132</v>
@@ -1856,7 +1850,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>133</v>
@@ -1865,7 +1859,7 @@
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>134</v>
@@ -1879,7 +1873,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>135</v>
@@ -1888,7 +1882,7 @@
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>136</v>
@@ -1902,7 +1896,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>137</v>
@@ -1911,7 +1905,7 @@
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>138</v>
@@ -1925,7 +1919,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>139</v>
@@ -1934,7 +1928,7 @@
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>140</v>
@@ -1948,7 +1942,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>141</v>
@@ -1957,7 +1951,7 @@
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>142</v>
@@ -1966,29 +1960,6 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -505,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -873,7 +885,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -896,7 +908,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
@@ -942,7 +954,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>34</v>
@@ -965,7 +977,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>34</v>
@@ -1057,7 +1069,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>34</v>
@@ -1080,7 +1092,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -1103,7 +1115,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1126,7 +1138,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1402,7 +1414,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>34</v>
@@ -1425,7 +1437,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>34</v>
@@ -1465,76 +1477,76 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>105</v>
@@ -1543,7 +1555,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>106</v>
@@ -1552,12 +1564,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>107</v>
@@ -1566,7 +1578,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>108</v>
@@ -1575,12 +1587,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>109</v>
@@ -1589,113 +1601,113 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1704,7 +1716,7 @@
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -1713,12 +1725,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>119</v>
@@ -1727,7 +1739,7 @@
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>120</v>
@@ -1736,67 +1748,67 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -1810,7 +1822,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>129</v>
@@ -1819,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>130</v>
@@ -1833,7 +1845,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>131</v>
@@ -1842,7 +1854,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>132</v>
@@ -1856,16 +1868,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>134</v>
@@ -1879,16 +1891,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>136</v>
@@ -1902,7 +1914,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>137</v>
@@ -1911,7 +1923,7 @@
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>138</v>
@@ -1925,7 +1937,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>139</v>
@@ -1934,7 +1946,7 @@
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>140</v>
@@ -1948,7 +1960,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>141</v>
@@ -1957,7 +1969,7 @@
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>142</v>
@@ -1971,7 +1983,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>143</v>
@@ -1980,7 +1992,7 @@
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>144</v>
@@ -1989,6 +2001,52 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>18</v>
       </c>
     </row>
